--- a/Rawdata/lydata.xlsx
+++ b/Rawdata/lydata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="37">
   <si>
     <t>lya</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>zz033</t>
+  </si>
+  <si>
+    <t>91.5</t>
+  </si>
+  <si>
+    <t>250 SV</t>
   </si>
 </sst>
 </file>
@@ -483,9 +489,9 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2345,50 +2351,380 @@
       <c r="A52" t="s">
         <v>34</v>
       </c>
+      <c r="B52">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>-0.5</v>
+      </c>
+      <c r="F52">
+        <v>-0.6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>34</v>
       </c>
+      <c r="B53">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>-0.2</v>
+      </c>
+      <c r="F53">
+        <v>-0.3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J53">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>34</v>
       </c>
+      <c r="B54">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>3.8</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>34</v>
       </c>
+      <c r="B55">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>-0.1</v>
+      </c>
+      <c r="F55">
+        <v>-0.2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>34</v>
       </c>
+      <c r="B56">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>-0.2</v>
+      </c>
+      <c r="F56">
+        <v>-0.1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
+      <c r="B57">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.3</v>
+      </c>
+      <c r="F57">
+        <v>0.1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>34</v>
       </c>
+      <c r="B58">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>-0.4</v>
+      </c>
+      <c r="F58">
+        <v>-0.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>36</v>
+      </c>
+      <c r="J58">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>34</v>
       </c>
+      <c r="B59">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>-0.3</v>
+      </c>
+      <c r="F59">
+        <v>-0.5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59">
+        <v>20</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>34</v>
       </c>
+      <c r="B60">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>-0.2</v>
+      </c>
+      <c r="F60">
+        <v>-0.3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60">
+        <v>20</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>34</v>
+      </c>
+      <c r="B61">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>-0.4</v>
+      </c>
+      <c r="F61">
+        <v>-0.4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61">
+        <v>20</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/lydata.xlsx
+++ b/Rawdata/lydata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{655D4D94-E2E7-4740-A411-42C071AC19FC}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{655D4D94-E2E7-4740-A411-42C071AC19FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="42">
   <si>
     <t>lya</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>250 SV</t>
+  </si>
+  <si>
+    <t>zz062a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyan verkar var i två delar. Där gps-punkten ligger är det platt och översnöat men en eller flera rävar har grävt hål i snön, kanske ner till de riktiga lyöppningarna. 30 m SV om gps-punkten finns en grässlänt som är stenig men med några hål i (zz062a). </t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>zz062b</t>
+  </si>
+  <si>
+    <t>Andra delen av lyan vid gps-punkten. Mäter snödjup där det är grävt fyra hål i snön av rävar. Rävarna verkar ha lämnat lyan. Ett färskt spår vid foderautomaten. Rävarna verkar också ha försökt gräva i marken ovanför foderautomaten nyligen.</t>
   </si>
 </sst>
 </file>
@@ -486,12 +501,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1A5DEB-CC56-1046-88D0-A286B21A1C04}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1969,7 +1984,7 @@
         <v>14</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>23</v>
@@ -2010,7 +2025,7 @@
         <v>14</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>23</v>
@@ -2051,7 +2066,7 @@
         <v>14</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>23</v>
@@ -2092,7 +2107,7 @@
         <v>14</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="s">
         <v>23</v>
@@ -2133,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>23</v>
@@ -2174,7 +2189,7 @@
         <v>14</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -2215,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -2256,7 +2271,7 @@
         <v>14</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -2297,7 +2312,7 @@
         <v>14</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
@@ -2338,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -2725,6 +2740,736 @@
       </c>
       <c r="L61" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>4.5</v>
+      </c>
+      <c r="F62">
+        <v>3.3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62">
+        <v>36</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62" t="s">
+        <v>39</v>
+      </c>
+      <c r="M62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>1.2</v>
+      </c>
+      <c r="F63">
+        <v>0.8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63">
+        <v>36</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63" t="s">
+        <v>39</v>
+      </c>
+      <c r="M63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>-0.3</v>
+      </c>
+      <c r="F64">
+        <v>-0.4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64">
+        <v>36</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>2.8</v>
+      </c>
+      <c r="F65">
+        <v>2.7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65">
+        <v>36</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>-0.3</v>
+      </c>
+      <c r="F66">
+        <v>-0.4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66">
+        <v>36</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>-0.3</v>
+      </c>
+      <c r="F67">
+        <v>-0.4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67">
+        <v>36</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>-0.4</v>
+      </c>
+      <c r="F68">
+        <v>-0.4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68">
+        <v>36</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0.7</v>
+      </c>
+      <c r="F69">
+        <v>0.6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69">
+        <v>36</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>1.8</v>
+      </c>
+      <c r="F70">
+        <v>3.4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70">
+        <v>36</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>1.4</v>
+      </c>
+      <c r="F71">
+        <v>1.3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71">
+        <v>36</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="H72">
+        <v>150</v>
+      </c>
+      <c r="I72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>161</v>
+      </c>
+      <c r="I73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>39</v>
+      </c>
+      <c r="M73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>178</v>
+      </c>
+      <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>39</v>
+      </c>
+      <c r="M74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>110</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>39</v>
+      </c>
+      <c r="M75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="H76">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>39</v>
+      </c>
+      <c r="M76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <v>72</v>
+      </c>
+      <c r="I77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>39</v>
+      </c>
+      <c r="M77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>39</v>
+      </c>
+      <c r="M78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>65</v>
+      </c>
+      <c r="I79" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>39</v>
+      </c>
+      <c r="M79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>39</v>
+      </c>
+      <c r="M80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="H81">
+        <v>165</v>
+      </c>
+      <c r="I81" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>39</v>
+      </c>
+      <c r="M81" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/lydata.xlsx
+++ b/Rawdata/lydata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{655D4D94-E2E7-4740-A411-42C071AC19FC}"/>
+    <workbookView xWindow="2800" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{655D4D94-E2E7-4740-A411-42C071AC19FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="48">
   <si>
     <t>lya</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>Andra delen av lyan vid gps-punkten. Mäter snödjup där det är grävt fyra hål i snön av rävar. Rävarna verkar ha lämnat lyan. Ett färskt spår vid foderautomaten. Rävarna verkar också ha försökt gräva i marken ovanför foderautomaten nyligen.</t>
+  </si>
+  <si>
+    <t>zz014</t>
+  </si>
+  <si>
+    <t>130 SO</t>
+  </si>
+  <si>
+    <t>Om man räknar med nysnö är andel snöfri yta 70 %. Den snöfria ytan är då 236,6 kvadratmeter. Det fanns 11 hål på lyan men alla utom ett var täckt med snö. Jag borde ha undersökt om det bara var nysnö men det gjorde jag inte.</t>
+  </si>
+  <si>
+    <t>zz096</t>
+  </si>
+  <si>
+    <t>266 V</t>
+  </si>
+  <si>
+    <t>Lyan ligger i en sluttning med riktning 172 grader S. Dock skymmer en liten kulle lyan. Kullen har inga synliga öppningar och väldigt lite högt gräs. Lyans riktning blir snarare 266 grader. Vinkel svårt pga snö. Kullen framför lyan har en vinkel på 28 grader. Det är ett mycket färskt rävspår på lyan och ett grävt hål i snön bakom en sten 10 m norr om "kullen". Endast 1 synlig öppning som är igenisad. Andel snöfri yta är svårt att säga. Kullens snöfria area är 18,7 kvadratmeter men oklart om den är en del av lyan.</t>
   </si>
 </sst>
 </file>
@@ -501,12 +519,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1A5DEB-CC56-1046-88D0-A286B21A1C04}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3472,6 +3490,826 @@
         <v>41</v>
       </c>
     </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82">
+        <v>90</v>
+      </c>
+      <c r="C82">
+        <v>449.5</v>
+      </c>
+      <c r="D82">
+        <v>1.2</v>
+      </c>
+      <c r="E82">
+        <v>0.9</v>
+      </c>
+      <c r="F82">
+        <v>0.5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82">
+        <v>9</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83">
+        <v>90</v>
+      </c>
+      <c r="C83">
+        <v>449.5</v>
+      </c>
+      <c r="D83">
+        <v>1.2</v>
+      </c>
+      <c r="E83">
+        <v>-0.1</v>
+      </c>
+      <c r="F83">
+        <v>0.1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83" t="s">
+        <v>43</v>
+      </c>
+      <c r="J83">
+        <v>9</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>449.5</v>
+      </c>
+      <c r="D84">
+        <v>1.2</v>
+      </c>
+      <c r="E84">
+        <v>-0.3</v>
+      </c>
+      <c r="F84">
+        <v>-0.4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84">
+        <v>12</v>
+      </c>
+      <c r="I84" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85">
+        <v>90</v>
+      </c>
+      <c r="C85">
+        <v>449.5</v>
+      </c>
+      <c r="D85">
+        <v>1.2</v>
+      </c>
+      <c r="E85">
+        <v>-0.2</v>
+      </c>
+      <c r="F85">
+        <v>-0.3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <v>12</v>
+      </c>
+      <c r="I85" t="s">
+        <v>43</v>
+      </c>
+      <c r="J85">
+        <v>9</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>449.5</v>
+      </c>
+      <c r="D86">
+        <v>1.2</v>
+      </c>
+      <c r="E86">
+        <v>-0.2</v>
+      </c>
+      <c r="F86">
+        <v>-0.4</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>43</v>
+      </c>
+      <c r="J86">
+        <v>9</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>449.5</v>
+      </c>
+      <c r="D87">
+        <v>1.2</v>
+      </c>
+      <c r="E87">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F87">
+        <v>4.5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>43</v>
+      </c>
+      <c r="J87">
+        <v>9</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88">
+        <v>90</v>
+      </c>
+      <c r="C88">
+        <v>449.5</v>
+      </c>
+      <c r="D88">
+        <v>1.2</v>
+      </c>
+      <c r="E88">
+        <v>0.5</v>
+      </c>
+      <c r="F88">
+        <v>-0.3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>43</v>
+      </c>
+      <c r="J88">
+        <v>9</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>449.5</v>
+      </c>
+      <c r="D89">
+        <v>1.2</v>
+      </c>
+      <c r="E89">
+        <v>-0.3</v>
+      </c>
+      <c r="F89">
+        <v>-0.4</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89">
+        <v>9</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>449.5</v>
+      </c>
+      <c r="D90">
+        <v>1.2</v>
+      </c>
+      <c r="E90">
+        <v>-0.3</v>
+      </c>
+      <c r="F90">
+        <v>-0.3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90" t="s">
+        <v>43</v>
+      </c>
+      <c r="J90">
+        <v>9</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>449.5</v>
+      </c>
+      <c r="D91">
+        <v>1.2</v>
+      </c>
+      <c r="E91">
+        <v>-0.3</v>
+      </c>
+      <c r="F91">
+        <v>-0.3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>43</v>
+      </c>
+      <c r="J91">
+        <v>9</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>17</v>
+      </c>
+      <c r="M91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92">
+        <v>15</v>
+      </c>
+      <c r="C92">
+        <v>10.3</v>
+      </c>
+      <c r="D92">
+        <v>0.1</v>
+      </c>
+      <c r="E92">
+        <v>-0.3</v>
+      </c>
+      <c r="F92">
+        <v>-0.4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92">
+        <v>59</v>
+      </c>
+      <c r="I92" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92">
+        <v>16</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>10.3</v>
+      </c>
+      <c r="D93">
+        <v>0.1</v>
+      </c>
+      <c r="E93">
+        <v>-0.3</v>
+      </c>
+      <c r="F93">
+        <v>-0.4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>46</v>
+      </c>
+      <c r="J93">
+        <v>16</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94">
+        <v>15</v>
+      </c>
+      <c r="C94">
+        <v>10.3</v>
+      </c>
+      <c r="D94">
+        <v>0.1</v>
+      </c>
+      <c r="E94">
+        <v>-0.3</v>
+      </c>
+      <c r="F94">
+        <v>-0.3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>46</v>
+      </c>
+      <c r="J94">
+        <v>16</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95">
+        <v>15</v>
+      </c>
+      <c r="C95">
+        <v>10.3</v>
+      </c>
+      <c r="D95">
+        <v>0.1</v>
+      </c>
+      <c r="E95">
+        <v>-0.5</v>
+      </c>
+      <c r="F95">
+        <v>-0.5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>46</v>
+      </c>
+      <c r="J95">
+        <v>16</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>23</v>
+      </c>
+      <c r="M95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>10.3</v>
+      </c>
+      <c r="D96">
+        <v>0.1</v>
+      </c>
+      <c r="E96">
+        <v>-0.4</v>
+      </c>
+      <c r="F96">
+        <v>-0.5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>46</v>
+      </c>
+      <c r="J96">
+        <v>16</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97">
+        <v>15</v>
+      </c>
+      <c r="C97">
+        <v>10.3</v>
+      </c>
+      <c r="D97">
+        <v>0.1</v>
+      </c>
+      <c r="E97">
+        <v>-0.2</v>
+      </c>
+      <c r="F97">
+        <v>-0.3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>46</v>
+      </c>
+      <c r="J97">
+        <v>16</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>10.3</v>
+      </c>
+      <c r="D98">
+        <v>0.1</v>
+      </c>
+      <c r="E98">
+        <v>-0.3</v>
+      </c>
+      <c r="F98">
+        <v>-0.4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>46</v>
+      </c>
+      <c r="J98">
+        <v>16</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99">
+        <v>15</v>
+      </c>
+      <c r="C99">
+        <v>10.3</v>
+      </c>
+      <c r="D99">
+        <v>0.1</v>
+      </c>
+      <c r="E99">
+        <v>-0.3</v>
+      </c>
+      <c r="F99">
+        <v>-0.4</v>
+      </c>
+      <c r="G99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>46</v>
+      </c>
+      <c r="J99">
+        <v>16</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100">
+        <v>15</v>
+      </c>
+      <c r="C100">
+        <v>10.3</v>
+      </c>
+      <c r="D100">
+        <v>0.1</v>
+      </c>
+      <c r="E100">
+        <v>-0.2</v>
+      </c>
+      <c r="F100">
+        <v>-0.3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>46</v>
+      </c>
+      <c r="J100">
+        <v>16</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>10.3</v>
+      </c>
+      <c r="D101">
+        <v>0.1</v>
+      </c>
+      <c r="E101">
+        <v>-0.3</v>
+      </c>
+      <c r="F101">
+        <v>-0.4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101">
+        <v>29</v>
+      </c>
+      <c r="I101" t="s">
+        <v>46</v>
+      </c>
+      <c r="J101">
+        <v>16</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>

--- a/Rawdata/lydata.xlsx
+++ b/Rawdata/lydata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="55">
   <si>
     <t>lya</t>
   </si>
@@ -168,6 +168,27 @@
   </si>
   <si>
     <t>Lyan ligger i en sluttning med riktning 172 grader S. Dock skymmer en liten kulle lyan. Kullen har inga synliga öppningar och väldigt lite högt gräs. Lyans riktning blir snarare 266 grader. Vinkel svårt pga snö. Kullen framför lyan har en vinkel på 28 grader. Det är ett mycket färskt rävspår på lyan och ett grävt hål i snön bakom en sten 10 m norr om "kullen". Endast 1 synlig öppning som är igenisad. Andel snöfri yta är svårt att säga. Kullens snöfria area är 18,7 kvadratmeter men oklart om den är en del av lyan.</t>
+  </si>
+  <si>
+    <t>zz075</t>
+  </si>
+  <si>
+    <t>Ligger på låg höjd nära trädgränsen. Grov uppskattning av snöfri area. En del buskar på lyan. I princip ingen vinkel eller riktning. Ligger i botten på en dal och är platt. Flera kollapsade öppningarna men de räknade jag inte.</t>
+  </si>
+  <si>
+    <t>zz076</t>
+  </si>
+  <si>
+    <t>330 NV</t>
+  </si>
+  <si>
+    <t>zz061</t>
+  </si>
+  <si>
+    <t>286 V</t>
+  </si>
+  <si>
+    <t>Svårt att se hur stor lyan är. Den är täckt av mycket drevsnö på båda sidor.Endast en tunn rygg syns. 25% av snöfria arean var täckt av nysnö.</t>
   </si>
 </sst>
 </file>
@@ -519,12 +540,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1A5DEB-CC56-1046-88D0-A286B21A1C04}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <selection pane="bottomLeft" activeCell="M122" sqref="M122:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4310,6 +4331,1206 @@
         <v>47</v>
       </c>
     </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102">
+        <v>90</v>
+      </c>
+      <c r="C102">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D102">
+        <v>11.4</v>
+      </c>
+      <c r="E102">
+        <v>13.1</v>
+      </c>
+      <c r="F102">
+        <v>13.3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>36</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102" t="s">
+        <v>23</v>
+      </c>
+      <c r="M102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103">
+        <v>90</v>
+      </c>
+      <c r="C103">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D103">
+        <v>11.4</v>
+      </c>
+      <c r="E103">
+        <v>18.8</v>
+      </c>
+      <c r="F103">
+        <v>15.3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>36</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103" t="s">
+        <v>23</v>
+      </c>
+      <c r="M103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104">
+        <v>90</v>
+      </c>
+      <c r="C104">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D104">
+        <v>11.4</v>
+      </c>
+      <c r="E104">
+        <v>6.7</v>
+      </c>
+      <c r="F104">
+        <v>5.7</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>36</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104" t="s">
+        <v>23</v>
+      </c>
+      <c r="M104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105">
+        <v>90</v>
+      </c>
+      <c r="C105">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D105">
+        <v>11.4</v>
+      </c>
+      <c r="E105">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F105">
+        <v>9.6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>36</v>
+      </c>
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105" t="s">
+        <v>23</v>
+      </c>
+      <c r="M105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106">
+        <v>90</v>
+      </c>
+      <c r="C106">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D106">
+        <v>11.4</v>
+      </c>
+      <c r="E106">
+        <v>9.1</v>
+      </c>
+      <c r="F106">
+        <v>7.6</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>36</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>4</v>
+      </c>
+      <c r="L106" t="s">
+        <v>23</v>
+      </c>
+      <c r="M106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107">
+        <v>90</v>
+      </c>
+      <c r="C107">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D107">
+        <v>11.4</v>
+      </c>
+      <c r="E107">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>7.8</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>36</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107" t="s">
+        <v>23</v>
+      </c>
+      <c r="M107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108">
+        <v>90</v>
+      </c>
+      <c r="C108">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D108">
+        <v>11.4</v>
+      </c>
+      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108" t="s">
+        <v>23</v>
+      </c>
+      <c r="M108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109">
+        <v>90</v>
+      </c>
+      <c r="C109">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D109">
+        <v>11.4</v>
+      </c>
+      <c r="E109">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F109">
+        <v>6.4</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>36</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109" t="s">
+        <v>23</v>
+      </c>
+      <c r="M109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110">
+        <v>90</v>
+      </c>
+      <c r="C110">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D110">
+        <v>11.4</v>
+      </c>
+      <c r="E110">
+        <v>11.1</v>
+      </c>
+      <c r="F110">
+        <v>7.5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>36</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110" t="s">
+        <v>23</v>
+      </c>
+      <c r="M110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111">
+        <v>90</v>
+      </c>
+      <c r="C111">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D111">
+        <v>11.4</v>
+      </c>
+      <c r="E111">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F111">
+        <v>6.7</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>36</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
+      <c r="L111" t="s">
+        <v>23</v>
+      </c>
+      <c r="M111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+      <c r="B112">
+        <v>95</v>
+      </c>
+      <c r="C112">
+        <v>101.4</v>
+      </c>
+      <c r="D112">
+        <v>-0.7</v>
+      </c>
+      <c r="E112">
+        <v>-0.2</v>
+      </c>
+      <c r="F112">
+        <v>-0.4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>51</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
+      </c>
+      <c r="L112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113">
+        <v>95</v>
+      </c>
+      <c r="C113">
+        <v>101.4</v>
+      </c>
+      <c r="D113">
+        <v>-0.7</v>
+      </c>
+      <c r="E113">
+        <v>-0.6</v>
+      </c>
+      <c r="F113">
+        <v>-0.4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>51</v>
+      </c>
+      <c r="J113">
+        <v>4</v>
+      </c>
+      <c r="K113">
+        <v>7</v>
+      </c>
+      <c r="L113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>50</v>
+      </c>
+      <c r="B114">
+        <v>95</v>
+      </c>
+      <c r="C114">
+        <v>101.4</v>
+      </c>
+      <c r="D114">
+        <v>-0.7</v>
+      </c>
+      <c r="E114">
+        <v>-0.3</v>
+      </c>
+      <c r="F114">
+        <v>-0.4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>51</v>
+      </c>
+      <c r="J114">
+        <v>4</v>
+      </c>
+      <c r="K114">
+        <v>7</v>
+      </c>
+      <c r="L114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="B115">
+        <v>95</v>
+      </c>
+      <c r="C115">
+        <v>101.4</v>
+      </c>
+      <c r="D115">
+        <v>-0.7</v>
+      </c>
+      <c r="E115">
+        <v>-0.2</v>
+      </c>
+      <c r="F115">
+        <v>-0.4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>51</v>
+      </c>
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115">
+        <v>7</v>
+      </c>
+      <c r="L115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116">
+        <v>95</v>
+      </c>
+      <c r="C116">
+        <v>101.4</v>
+      </c>
+      <c r="D116">
+        <v>-0.7</v>
+      </c>
+      <c r="E116">
+        <v>-0.2</v>
+      </c>
+      <c r="F116">
+        <v>-0.4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>51</v>
+      </c>
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="K116">
+        <v>7</v>
+      </c>
+      <c r="L116" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117">
+        <v>95</v>
+      </c>
+      <c r="C117">
+        <v>101.4</v>
+      </c>
+      <c r="D117">
+        <v>-0.7</v>
+      </c>
+      <c r="E117">
+        <v>-0.8</v>
+      </c>
+      <c r="F117">
+        <v>-0.5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>51</v>
+      </c>
+      <c r="J117">
+        <v>4</v>
+      </c>
+      <c r="K117">
+        <v>7</v>
+      </c>
+      <c r="L117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>50</v>
+      </c>
+      <c r="B118">
+        <v>95</v>
+      </c>
+      <c r="C118">
+        <v>101.4</v>
+      </c>
+      <c r="D118">
+        <v>-0.7</v>
+      </c>
+      <c r="E118">
+        <v>-0.3</v>
+      </c>
+      <c r="F118">
+        <v>-0.5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>51</v>
+      </c>
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>7</v>
+      </c>
+      <c r="L118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>50</v>
+      </c>
+      <c r="B119">
+        <v>95</v>
+      </c>
+      <c r="C119">
+        <v>101.4</v>
+      </c>
+      <c r="D119">
+        <v>-0.7</v>
+      </c>
+      <c r="E119">
+        <v>-0.9</v>
+      </c>
+      <c r="F119">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G119" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>51</v>
+      </c>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>7</v>
+      </c>
+      <c r="L119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B120">
+        <v>95</v>
+      </c>
+      <c r="C120">
+        <v>101.4</v>
+      </c>
+      <c r="D120">
+        <v>-0.7</v>
+      </c>
+      <c r="E120">
+        <v>-0.3</v>
+      </c>
+      <c r="F120">
+        <v>-0.4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>51</v>
+      </c>
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>7</v>
+      </c>
+      <c r="L120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>50</v>
+      </c>
+      <c r="B121">
+        <v>95</v>
+      </c>
+      <c r="C121">
+        <v>101.4</v>
+      </c>
+      <c r="D121">
+        <v>-0.7</v>
+      </c>
+      <c r="E121">
+        <v>-0.3</v>
+      </c>
+      <c r="F121">
+        <v>-0.3</v>
+      </c>
+      <c r="G121" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>51</v>
+      </c>
+      <c r="J121">
+        <v>4</v>
+      </c>
+      <c r="K121">
+        <v>7</v>
+      </c>
+      <c r="L121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>52</v>
+      </c>
+      <c r="B122">
+        <v>35</v>
+      </c>
+      <c r="C122">
+        <v>47.3</v>
+      </c>
+      <c r="D122">
+        <v>3.1</v>
+      </c>
+      <c r="E122">
+        <v>-0.4</v>
+      </c>
+      <c r="F122">
+        <v>-0.4</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>53</v>
+      </c>
+      <c r="J122">
+        <v>6</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122" t="s">
+        <v>23</v>
+      </c>
+      <c r="M122" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>52</v>
+      </c>
+      <c r="B123">
+        <v>35</v>
+      </c>
+      <c r="C123">
+        <v>47.3</v>
+      </c>
+      <c r="D123">
+        <v>3.1</v>
+      </c>
+      <c r="E123">
+        <v>-0.4</v>
+      </c>
+      <c r="F123">
+        <v>-0.5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123">
+        <v>5</v>
+      </c>
+      <c r="I123" t="s">
+        <v>53</v>
+      </c>
+      <c r="J123">
+        <v>6</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>23</v>
+      </c>
+      <c r="M123" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124">
+        <v>35</v>
+      </c>
+      <c r="C124">
+        <v>47.3</v>
+      </c>
+      <c r="D124">
+        <v>3.1</v>
+      </c>
+      <c r="E124">
+        <v>-0.1</v>
+      </c>
+      <c r="F124">
+        <v>-0.3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>53</v>
+      </c>
+      <c r="J124">
+        <v>6</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>23</v>
+      </c>
+      <c r="M124" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125">
+        <v>35</v>
+      </c>
+      <c r="C125">
+        <v>47.3</v>
+      </c>
+      <c r="D125">
+        <v>3.1</v>
+      </c>
+      <c r="E125">
+        <v>-0.3</v>
+      </c>
+      <c r="F125">
+        <v>-0.3</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125" t="s">
+        <v>53</v>
+      </c>
+      <c r="J125">
+        <v>6</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>23</v>
+      </c>
+      <c r="M125" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>52</v>
+      </c>
+      <c r="B126">
+        <v>35</v>
+      </c>
+      <c r="C126">
+        <v>47.3</v>
+      </c>
+      <c r="D126">
+        <v>3.1</v>
+      </c>
+      <c r="E126">
+        <v>-0.3</v>
+      </c>
+      <c r="F126">
+        <v>-0.4</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126">
+        <v>20</v>
+      </c>
+      <c r="I126" t="s">
+        <v>53</v>
+      </c>
+      <c r="J126">
+        <v>6</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>23</v>
+      </c>
+      <c r="M126" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127">
+        <v>35</v>
+      </c>
+      <c r="C127">
+        <v>47.3</v>
+      </c>
+      <c r="D127">
+        <v>3.1</v>
+      </c>
+      <c r="E127">
+        <v>-0.3</v>
+      </c>
+      <c r="F127">
+        <v>-0.4</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127">
+        <v>15</v>
+      </c>
+      <c r="I127" t="s">
+        <v>53</v>
+      </c>
+      <c r="J127">
+        <v>6</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>23</v>
+      </c>
+      <c r="M127" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>52</v>
+      </c>
+      <c r="B128">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>47.3</v>
+      </c>
+      <c r="D128">
+        <v>3.1</v>
+      </c>
+      <c r="E128">
+        <v>-0.3</v>
+      </c>
+      <c r="F128">
+        <v>-0.4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128">
+        <v>24</v>
+      </c>
+      <c r="I128" t="s">
+        <v>53</v>
+      </c>
+      <c r="J128">
+        <v>6</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128" t="s">
+        <v>23</v>
+      </c>
+      <c r="M128" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>47.3</v>
+      </c>
+      <c r="D129">
+        <v>3.1</v>
+      </c>
+      <c r="E129">
+        <v>-0.3</v>
+      </c>
+      <c r="F129">
+        <v>-0.4</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129">
+        <v>4</v>
+      </c>
+      <c r="I129" t="s">
+        <v>53</v>
+      </c>
+      <c r="J129">
+        <v>6</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>23</v>
+      </c>
+      <c r="M129" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130">
+        <v>35</v>
+      </c>
+      <c r="C130">
+        <v>47.3</v>
+      </c>
+      <c r="D130">
+        <v>3.1</v>
+      </c>
+      <c r="E130">
+        <v>-0.3</v>
+      </c>
+      <c r="F130">
+        <v>-0.4</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130">
+        <v>6</v>
+      </c>
+      <c r="I130" t="s">
+        <v>53</v>
+      </c>
+      <c r="J130">
+        <v>6</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>23</v>
+      </c>
+      <c r="M130" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131">
+        <v>35</v>
+      </c>
+      <c r="C131">
+        <v>47.3</v>
+      </c>
+      <c r="D131">
+        <v>3.1</v>
+      </c>
+      <c r="E131">
+        <v>-0.4</v>
+      </c>
+      <c r="F131">
+        <v>-0.5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131">
+        <v>9</v>
+      </c>
+      <c r="I131" t="s">
+        <v>53</v>
+      </c>
+      <c r="J131">
+        <v>6</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>23</v>
+      </c>
+      <c r="M131" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
